--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.59342869016487</v>
+        <v>100.4224866078773</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.9032405480908</v>
+        <v>137.4024765042723</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.50966811686686</v>
+        <v>124.2889769923284</v>
       </c>
       <c r="AD2" t="n">
-        <v>79593.42869016487</v>
+        <v>100422.4866078773</v>
       </c>
       <c r="AE2" t="n">
-        <v>108903.2405480908</v>
+        <v>137402.4765042723</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.894390627633586e-06</v>
+        <v>6.583660580883053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.199652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>98509.66811686686</v>
+        <v>124288.9769923284</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.17158735471044</v>
+        <v>85.91530441785123</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.17064098619625</v>
+        <v>117.5531098201802</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.66032016227582</v>
+        <v>106.3340060057986</v>
       </c>
       <c r="AD3" t="n">
-        <v>65171.58735471043</v>
+        <v>85915.30441785124</v>
       </c>
       <c r="AE3" t="n">
-        <v>89170.64098619625</v>
+        <v>117553.1098201802</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.526221918536547e-06</v>
+        <v>7.651802727222889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>80660.32016227582</v>
+        <v>106334.0060057986</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.9356413079099</v>
+        <v>84.6793583710507</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.47956507887328</v>
+        <v>115.8620339128572</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.13063816610727</v>
+        <v>104.80432400963</v>
       </c>
       <c r="AD4" t="n">
-        <v>63935.6413079099</v>
+        <v>84679.35837105069</v>
       </c>
       <c r="AE4" t="n">
-        <v>87479.56507887327</v>
+        <v>115862.0339128572</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.750907278403254e-06</v>
+        <v>8.031644476111551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.262152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>79130.63816610728</v>
+        <v>104804.32400963</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.28298738397553</v>
+        <v>84.02670444711633</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.58657518708772</v>
+        <v>114.9690440210716</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.32287397627427</v>
+        <v>103.996559819797</v>
       </c>
       <c r="AD5" t="n">
-        <v>63282.98738397553</v>
+        <v>84026.70444711632</v>
       </c>
       <c r="AE5" t="n">
-        <v>86586.57518708771</v>
+        <v>114969.0440210716</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.862806469676992e-06</v>
+        <v>8.220815610972582e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>78322.87397627426</v>
+        <v>103996.559819797</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.79399439771412</v>
+        <v>83.53771146085492</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.91751341043717</v>
+        <v>114.2999822444211</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.71766651655292</v>
+        <v>103.3913523600757</v>
       </c>
       <c r="AD6" t="n">
-        <v>62793.99439771412</v>
+        <v>83537.71146085492</v>
       </c>
       <c r="AE6" t="n">
-        <v>85917.51341043717</v>
+        <v>114299.9822444211</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.924941565040088e-06</v>
+        <v>8.32585807259128e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>77717.66651655293</v>
+        <v>103391.3523600757</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.29823576169584</v>
+        <v>83.04195282483663</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.23919457330987</v>
+        <v>113.6216634072938</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.10408547721437</v>
+        <v>102.7777713207371</v>
       </c>
       <c r="AD7" t="n">
-        <v>62298.23576169583</v>
+        <v>83041.95282483663</v>
       </c>
       <c r="AE7" t="n">
-        <v>85239.19457330987</v>
+        <v>113621.6634072938</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.989270762192867e-06</v>
+        <v>8.434609772148435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>77104.08547721436</v>
+        <v>102777.7713207371</v>
       </c>
     </row>
     <row r="8">
@@ -3188,28 +3188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.22576321666769</v>
+        <v>82.96948027980847</v>
       </c>
       <c r="AB8" t="n">
-        <v>85.14003443993937</v>
+        <v>113.5225032739233</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.01438904780059</v>
+        <v>102.6880748913233</v>
       </c>
       <c r="AD8" t="n">
-        <v>62225.76321666768</v>
+        <v>82969.48027980847</v>
       </c>
       <c r="AE8" t="n">
-        <v>85140.03443993937</v>
+        <v>113522.5032739233</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.986913269844379e-06</v>
+        <v>8.430624314363503e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>77014.38904780059</v>
+        <v>102688.0748913233</v>
       </c>
     </row>
   </sheetData>
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.98861347469388</v>
+        <v>94.17497615170225</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.55204393443414</v>
+        <v>128.8543570774289</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.19619974141816</v>
+        <v>116.5566780862192</v>
       </c>
       <c r="AD2" t="n">
-        <v>63988.61347469388</v>
+        <v>94174.97615170226</v>
       </c>
       <c r="AE2" t="n">
-        <v>87552.04393443414</v>
+        <v>128854.3570774289</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457799428047912e-06</v>
+        <v>7.719976962656656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.704861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>79196.19974141815</v>
+        <v>116556.6780862192</v>
       </c>
     </row>
     <row r="3">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.12615506235395</v>
+        <v>81.22203940405338</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.63550205192006</v>
+        <v>111.1315775760658</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.65344711926892</v>
+        <v>100.5253357863833</v>
       </c>
       <c r="AD3" t="n">
-        <v>61126.15506235395</v>
+        <v>81222.03940405337</v>
       </c>
       <c r="AE3" t="n">
-        <v>83635.50205192006</v>
+        <v>111131.5775760658</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.070129605421727e-06</v>
+        <v>8.780404857443157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.131944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>75653.44711926892</v>
+        <v>100525.3357863833</v>
       </c>
     </row>
     <row r="4">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.38634047503206</v>
+        <v>80.48222481673149</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.62325509523066</v>
+        <v>110.1193306193764</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.73780759142811</v>
+        <v>99.60969625854244</v>
       </c>
       <c r="AD4" t="n">
-        <v>60386.34047503206</v>
+        <v>80482.22481673148</v>
       </c>
       <c r="AE4" t="n">
-        <v>82623.25509523066</v>
+        <v>110119.3306193764</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.223049161134034e-06</v>
+        <v>9.045229568894042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>74737.80759142811</v>
+        <v>99609.69625854245</v>
       </c>
     </row>
     <row r="5">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.54713647159576</v>
+        <v>69.72827215931575</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.79257798580501</v>
+        <v>95.40529816259993</v>
       </c>
       <c r="AC5" t="n">
-        <v>61.32254949033527</v>
+        <v>86.29995040816182</v>
       </c>
       <c r="AD5" t="n">
-        <v>49547.13647159576</v>
+        <v>69728.27215931575</v>
       </c>
       <c r="AE5" t="n">
-        <v>67792.57798580501</v>
+        <v>95405.29816259994</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.343129525978073e-06</v>
+        <v>9.253183664906235e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>61322.54949033527</v>
+        <v>86299.95040816182</v>
       </c>
     </row>
     <row r="6">
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.05014264739059</v>
+        <v>69.23127833511057</v>
       </c>
       <c r="AB6" t="n">
-        <v>67.11256910970776</v>
+        <v>94.72528928650269</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.70743970697408</v>
+        <v>85.68484062480064</v>
       </c>
       <c r="AD6" t="n">
-        <v>49050.14264739059</v>
+        <v>69231.27833511058</v>
       </c>
       <c r="AE6" t="n">
-        <v>67112.56910970777</v>
+        <v>94725.28928650268</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.407938635015153e-06</v>
+        <v>9.365419497139643e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>60707.43970697408</v>
+        <v>85684.84062480064</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.44220073522612</v>
+        <v>61.6729319606566</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.439535580552</v>
+        <v>84.38362632627168</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.76670972866828</v>
+        <v>76.33017146287567</v>
       </c>
       <c r="AD2" t="n">
-        <v>43442.20073522612</v>
+        <v>61672.9319606566</v>
       </c>
       <c r="AE2" t="n">
-        <v>59439.53558055199</v>
+        <v>84383.62632627168</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.305554641792664e-06</v>
+        <v>1.193146627280667e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.706597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>53766.70972866828</v>
+        <v>76330.17146287567</v>
       </c>
     </row>
     <row r="3">
@@ -4312,28 +4312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.8266553428407</v>
+        <v>61.05738656827118</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.59731921874454</v>
+        <v>83.54140996446422</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.00487331437338</v>
+        <v>75.56833504858078</v>
       </c>
       <c r="AD3" t="n">
-        <v>42826.6553428407</v>
+        <v>61057.38656827118</v>
       </c>
       <c r="AE3" t="n">
-        <v>58597.31921874454</v>
+        <v>83541.40996446423</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.523504140766966e-06</v>
+        <v>1.23438736253576e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.585069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>53004.87331437338</v>
+        <v>75568.33504858078</v>
       </c>
     </row>
   </sheetData>
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.65239123011257</v>
+        <v>75.56040144203665</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.51430100811976</v>
+        <v>103.3850747425996</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.11644491192733</v>
+        <v>93.5181483110557</v>
       </c>
       <c r="AD2" t="n">
-        <v>56652.39123011257</v>
+        <v>75560.40144203664</v>
       </c>
       <c r="AE2" t="n">
-        <v>77514.30100811976</v>
+        <v>103385.0747425996</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.53968531332705e-06</v>
+        <v>1.009210356094228e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70116.44491192733</v>
+        <v>93518.1483110557</v>
       </c>
     </row>
     <row r="3">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.3672192916331</v>
+        <v>64.36048084957777</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.07343089525163</v>
+        <v>88.06084928238076</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.14922977122913</v>
+        <v>79.65644542106972</v>
       </c>
       <c r="AD3" t="n">
-        <v>45367.2192916331</v>
+        <v>64360.48084957777</v>
       </c>
       <c r="AE3" t="n">
-        <v>62073.43089525163</v>
+        <v>88060.84928238076</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.060678085067086e-06</v>
+        <v>1.104123924456201e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.689236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>56149.22977122913</v>
+        <v>79656.44542106971</v>
       </c>
     </row>
     <row r="4">
@@ -4821,28 +4821,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.19797672602897</v>
+        <v>64.19123828397362</v>
       </c>
       <c r="AB4" t="n">
-        <v>61.84186575053712</v>
+        <v>87.82928413766625</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.93976487892238</v>
+        <v>79.44698052876296</v>
       </c>
       <c r="AD4" t="n">
-        <v>45197.97672602897</v>
+        <v>64191.23828397362</v>
       </c>
       <c r="AE4" t="n">
-        <v>61841.86575053712</v>
+        <v>87829.28413766625</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.097306361766205e-06</v>
+        <v>1.110796800996987e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>55939.76487892238</v>
+        <v>79446.98052876296</v>
       </c>
     </row>
   </sheetData>
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.01453439483177</v>
+        <v>58.61983432896947</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.11789539238817</v>
+        <v>80.20624345343809</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.76208221820946</v>
+        <v>72.55147214843031</v>
       </c>
       <c r="AD2" t="n">
-        <v>41014.53439483177</v>
+        <v>58619.83432896947</v>
       </c>
       <c r="AE2" t="n">
-        <v>56117.89539238817</v>
+        <v>80206.24345343809</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.79625157963186e-06</v>
+        <v>1.331846334064109e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>50762.08221820946</v>
+        <v>72551.4721484303</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.22330245312141</v>
+        <v>95.66508106859763</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.24139986535123</v>
+        <v>130.8931843635135</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.72432591331497</v>
+        <v>118.4009225576326</v>
       </c>
       <c r="AD2" t="n">
-        <v>65223.3024531214</v>
+        <v>95665.08106859763</v>
       </c>
       <c r="AE2" t="n">
-        <v>89241.39986535122</v>
+        <v>130893.1843635135</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.308827987973477e-06</v>
+        <v>7.413257578750579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80724.32591331497</v>
+        <v>118400.9225576326</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.26719877185185</v>
+        <v>82.53336040586316</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.19672839454998</v>
+        <v>112.9257848221407</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.06567221095366</v>
+        <v>102.148306411079</v>
       </c>
       <c r="AD3" t="n">
-        <v>62267.19877185184</v>
+        <v>82533.36040586316</v>
       </c>
       <c r="AE3" t="n">
-        <v>85196.72839454998</v>
+        <v>112925.7848221407</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.888856542426579e-06</v>
+        <v>8.411185806378328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>77065.67221095366</v>
+        <v>102148.306411079</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.28460048385077</v>
+        <v>81.55076211786208</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.85229406773054</v>
+        <v>111.5813504953212</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.84954880936002</v>
+        <v>100.9321830094854</v>
       </c>
       <c r="AD4" t="n">
-        <v>61284.60048385077</v>
+        <v>81550.76211786208</v>
       </c>
       <c r="AE4" t="n">
-        <v>83852.29406773055</v>
+        <v>111581.3504953212</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.107692349616383e-06</v>
+        <v>8.787688700130371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>75849.54880936001</v>
+        <v>100932.1830094854</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.26706916501872</v>
+        <v>80.62350692592331</v>
       </c>
       <c r="AB5" t="n">
-        <v>68.77762165813465</v>
+        <v>110.3126390340993</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.21358197709555</v>
+        <v>99.78455558947434</v>
       </c>
       <c r="AD5" t="n">
-        <v>50267.06916501871</v>
+        <v>80623.50692592331</v>
       </c>
       <c r="AE5" t="n">
-        <v>68777.62165813465</v>
+        <v>110312.6390340993</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.23083385467912e-06</v>
+        <v>8.99955134542813e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.967013888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>62213.58197709555</v>
+        <v>99784.55558947433</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.75028948588285</v>
+        <v>70.10170246591474</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.07054090243092</v>
+        <v>95.91624198267085</v>
       </c>
       <c r="AC6" t="n">
-        <v>61.57398401632189</v>
+        <v>86.76213046715949</v>
       </c>
       <c r="AD6" t="n">
-        <v>49750.28948588285</v>
+        <v>70101.70246591474</v>
       </c>
       <c r="AE6" t="n">
-        <v>68070.54090243092</v>
+        <v>95916.24198267085</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.294151464938738e-06</v>
+        <v>9.108488103970274e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.923611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>61573.98401632189</v>
+        <v>86762.1304671595</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.91158943599833</v>
+        <v>57.14654040184378</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.60879744122212</v>
+        <v>78.19041770520494</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.39701045746592</v>
+        <v>70.72803398037868</v>
       </c>
       <c r="AD2" t="n">
-        <v>39911.58943599833</v>
+        <v>57146.54040184378</v>
       </c>
       <c r="AE2" t="n">
-        <v>54608.79744122212</v>
+        <v>78190.41770520493</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.958453577669729e-06</v>
+        <v>1.394933616960768e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>49397.01045746592</v>
+        <v>70728.03398037868</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.23464266666544</v>
+        <v>79.7778948092745</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.41569546138858</v>
+        <v>109.1556352303273</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.55005715772806</v>
+        <v>98.73797460486894</v>
       </c>
       <c r="AD2" t="n">
-        <v>60234.64266666544</v>
+        <v>79777.8948092745</v>
       </c>
       <c r="AE2" t="n">
-        <v>82415.69546138858</v>
+        <v>109155.6352303273</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.972632864345128e-06</v>
+        <v>8.806902303687572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>74550.05715772806</v>
+        <v>98737.97460486894</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.35859727763935</v>
+        <v>67.98710076626898</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.16636622598608</v>
+        <v>93.02295064757404</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.85154109847041</v>
+        <v>84.14497079632351</v>
       </c>
       <c r="AD3" t="n">
-        <v>48358.59727763935</v>
+        <v>67987.10076626898</v>
       </c>
       <c r="AE3" t="n">
-        <v>66166.36622598609</v>
+        <v>93022.95064757403</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.486519857640604e-06</v>
+        <v>9.717034354163215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>59851.54109847041</v>
+        <v>84144.97079632351</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.54634606212225</v>
+        <v>67.17484955075189</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.05500827892156</v>
+        <v>91.9115927005095</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.84624959407269</v>
+        <v>83.1396792919258</v>
       </c>
       <c r="AD4" t="n">
-        <v>47546.34606212225</v>
+        <v>67174.84955075188</v>
       </c>
       <c r="AE4" t="n">
-        <v>65055.00827892156</v>
+        <v>91911.5927005095</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.665967324848207e-06</v>
+        <v>1.003484915277286e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.810763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>58846.24959407269</v>
+        <v>83139.6792919258</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.30677428456694</v>
+        <v>66.93527777319657</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.72721560370964</v>
+        <v>91.58380002529759</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.54974099172299</v>
+        <v>82.84317068957608</v>
       </c>
       <c r="AD5" t="n">
-        <v>47306.77428456694</v>
+        <v>66935.27777319658</v>
       </c>
       <c r="AE5" t="n">
-        <v>64727.21560370964</v>
+        <v>91583.80002529759</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.717689393935219e-06</v>
+        <v>1.012645278043256e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.776041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>58549.74099172299</v>
+        <v>82843.17068957609</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.7264968858529</v>
+        <v>82.81622112807553</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.82516033692863</v>
+        <v>113.3128073412058</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.63412749076166</v>
+        <v>102.4983920441142</v>
       </c>
       <c r="AD2" t="n">
-        <v>62726.4968858529</v>
+        <v>82816.22112807553</v>
       </c>
       <c r="AE2" t="n">
-        <v>85825.16033692863</v>
+        <v>113312.8073412058</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.620752962579564e-06</v>
+        <v>8.058189686266533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77634.12749076166</v>
+        <v>102498.3920441142</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.30581893262987</v>
+        <v>80.2249509742603</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.51308196855629</v>
+        <v>109.7673171979866</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.63814923333453</v>
+        <v>99.29127850403607</v>
       </c>
       <c r="AD3" t="n">
-        <v>60305.81893262987</v>
+        <v>80224.9509742603</v>
       </c>
       <c r="AE3" t="n">
-        <v>82513.08196855629</v>
+        <v>109767.3171979866</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.172889589217619e-06</v>
+        <v>9.021067750992364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.088541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>74638.14923333454</v>
+        <v>99291.27850403608</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.16525537552574</v>
+        <v>69.16963876317675</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.27007142275735</v>
+        <v>94.64095130483688</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.84991022032214</v>
+        <v>85.60855174173589</v>
       </c>
       <c r="AD4" t="n">
-        <v>49165.25537552574</v>
+        <v>69169.63876317674</v>
       </c>
       <c r="AE4" t="n">
-        <v>67270.07142275735</v>
+        <v>94640.95130483687</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.405824894685513e-06</v>
+        <v>9.427286584002831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>60849.91022032213</v>
+        <v>85608.55174173589</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.71469061662063</v>
+        <v>68.71907400427165</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.6535888421094</v>
+        <v>94.02446872418894</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.2922638719323</v>
+        <v>85.05090539334607</v>
       </c>
       <c r="AD5" t="n">
-        <v>48714.69061662063</v>
+        <v>68719.07400427165</v>
       </c>
       <c r="AE5" t="n">
-        <v>66653.5888421094</v>
+        <v>94024.46872418893</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.461011743950824e-06</v>
+        <v>9.523527630249765e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>60292.2638719323</v>
+        <v>85050.90539334607</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.65919142364574</v>
+        <v>68.66357481129675</v>
       </c>
       <c r="AB6" t="n">
-        <v>66.57765239782961</v>
+        <v>93.94853227990913</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.22357469531708</v>
+        <v>84.98221621673083</v>
       </c>
       <c r="AD6" t="n">
-        <v>48659.19142364574</v>
+        <v>68663.57481129676</v>
       </c>
       <c r="AE6" t="n">
-        <v>66577.6523978296</v>
+        <v>93948.53227990914</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.45964669820928e-06</v>
+        <v>9.52114710967122e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>60223.57469531707</v>
+        <v>84982.21621673083</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.2287217031909</v>
+        <v>98.90366185944038</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.0359882418908</v>
+        <v>135.3243534776431</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.82062375006497</v>
+        <v>122.409187110696</v>
       </c>
       <c r="AD2" t="n">
-        <v>78228.72170319089</v>
+        <v>98903.66185944037</v>
       </c>
       <c r="AE2" t="n">
-        <v>107035.9882418908</v>
+        <v>135324.3534776431</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023234730523209e-06</v>
+        <v>6.839232396460599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>96820.62375006497</v>
+        <v>122409.187110696</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.05439521286085</v>
+        <v>84.64399451453872</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.64204941067962</v>
+        <v>115.8136475242343</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.27761522133427</v>
+        <v>104.7605555500265</v>
       </c>
       <c r="AD3" t="n">
-        <v>64054.39521286086</v>
+        <v>84643.99451453872</v>
       </c>
       <c r="AE3" t="n">
-        <v>87642.04941067962</v>
+        <v>115813.6475242343</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.677033608233221e-06</v>
+        <v>7.950647157145566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>79277.61522133427</v>
+        <v>104760.5555500265</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.10709683797775</v>
+        <v>83.69669613965561</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.34591398231042</v>
+        <v>114.5175120958651</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.10518113911071</v>
+        <v>103.588121467803</v>
       </c>
       <c r="AD4" t="n">
-        <v>63107.09683797775</v>
+        <v>83696.69613965561</v>
       </c>
       <c r="AE4" t="n">
-        <v>86345.91398231042</v>
+        <v>114517.5120958651</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.844506632975552e-06</v>
+        <v>8.235340199701907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>78105.18113911072</v>
+        <v>103588.121467803</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.47123329378591</v>
+        <v>83.06083259546376</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.47589742882785</v>
+        <v>113.6474955423825</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.31819774441635</v>
+        <v>102.8011380731086</v>
       </c>
       <c r="AD5" t="n">
-        <v>62471.23329378591</v>
+        <v>83060.83259546377</v>
       </c>
       <c r="AE5" t="n">
-        <v>85475.89742882786</v>
+        <v>113647.4955423825</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.961111902801765e-06</v>
+        <v>8.433561430231439e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>77318.19774441635</v>
+        <v>102801.1380731086</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.85161528450698</v>
+        <v>82.44121458618484</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.62810873291552</v>
+        <v>112.7997068464702</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.55132081176272</v>
+        <v>102.034261140455</v>
       </c>
       <c r="AD6" t="n">
-        <v>61851.61528450698</v>
+        <v>82441.21458618484</v>
       </c>
       <c r="AE6" t="n">
-        <v>84628.10873291553</v>
+        <v>112799.7068464702</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.028261103787241e-06</v>
+        <v>8.547710621500869e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>76551.32081176272</v>
+        <v>102034.261140455</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.55172527691222</v>
+        <v>82.14132457859009</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.21778599431119</v>
+        <v>112.3893841078659</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.18015869943906</v>
+        <v>101.6630990281313</v>
       </c>
       <c r="AD7" t="n">
-        <v>61551.72527691222</v>
+        <v>82141.32457859008</v>
       </c>
       <c r="AE7" t="n">
-        <v>84217.78599431118</v>
+        <v>112389.3841078659</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.087457806548087e-06</v>
+        <v>8.648341092851213e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>76180.15869943907</v>
+        <v>101663.0990281313</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.9233473955268</v>
+        <v>77.05438877181396</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.25327930426742</v>
+        <v>105.4292141172692</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.68945756016258</v>
+        <v>95.36719789277508</v>
       </c>
       <c r="AD2" t="n">
-        <v>57923.34739552681</v>
+        <v>77054.38877181396</v>
       </c>
       <c r="AE2" t="n">
-        <v>79253.27930426742</v>
+        <v>105429.2141172692</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.325674487305212e-06</v>
+        <v>9.603451367915574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>71689.45756016258</v>
+        <v>95367.19789277508</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.44254462171746</v>
+        <v>65.65883734402519</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.54473845187776</v>
+        <v>89.83731791752878</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.48011779964444</v>
+        <v>81.26337038296916</v>
       </c>
       <c r="AD3" t="n">
-        <v>46442.54462171746</v>
+        <v>65658.83734402519</v>
       </c>
       <c r="AE3" t="n">
-        <v>63544.73845187775</v>
+        <v>89837.31791752878</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.833936096176403e-06</v>
+        <v>1.051996732370821e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.784722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>57480.11779964444</v>
+        <v>81263.37038296915</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.94200020290707</v>
+        <v>65.15829292521479</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.85987149560044</v>
+        <v>89.15245096125147</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.86061358445721</v>
+        <v>80.64386616778194</v>
       </c>
       <c r="AD4" t="n">
-        <v>45942.00020290707</v>
+        <v>65158.29292521479</v>
       </c>
       <c r="AE4" t="n">
-        <v>62859.87149560045</v>
+        <v>89152.45096125148</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.948300048933729e-06</v>
+        <v>1.072619259360887e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>56860.61358445721</v>
+        <v>80643.86616778193</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.57861147705945</v>
+        <v>63.08205247601168</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.99442289243115</v>
+        <v>86.31164718138919</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.17320077780024</v>
+        <v>78.07418471357565</v>
       </c>
       <c r="AD2" t="n">
-        <v>44578.61147705944</v>
+        <v>63082.05247601168</v>
       </c>
       <c r="AE2" t="n">
-        <v>60994.42289243115</v>
+        <v>86311.64718138918</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.068914121261125e-06</v>
+        <v>1.132265386594752e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.793402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>55173.20077780024</v>
+        <v>78074.18471357565</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.58538295429884</v>
+        <v>62.08882395325109</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.63544380944089</v>
+        <v>84.95266809839893</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.94392075115101</v>
+        <v>76.84490468692643</v>
       </c>
       <c r="AD3" t="n">
-        <v>43585.38295429884</v>
+        <v>62088.82395325109</v>
       </c>
       <c r="AE3" t="n">
-        <v>59635.44380944088</v>
+        <v>84952.66809839894</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.394590850147148e-06</v>
+        <v>1.193026254184755e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.602430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>53943.92075115101</v>
+        <v>76844.90468692643</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.13701715247347</v>
+        <v>60.0706624454621</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.65372582183041</v>
+        <v>82.19133048844149</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.15133514702184</v>
+        <v>74.34710526290075</v>
       </c>
       <c r="AD2" t="n">
-        <v>42137.01715247347</v>
+        <v>60070.66244546211</v>
       </c>
       <c r="AE2" t="n">
-        <v>57653.72582183041</v>
+        <v>82191.3304884415</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.585342485146091e-06</v>
+        <v>1.266385780719359e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>52151.33514702184</v>
+        <v>74347.10526290076</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.93677203832475</v>
+        <v>59.87041733131335</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.3797416224625</v>
+        <v>81.91734628907236</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.90349961510156</v>
+        <v>74.0992697309801</v>
       </c>
       <c r="AD3" t="n">
-        <v>41936.77203832475</v>
+        <v>59870.41733131335</v>
       </c>
       <c r="AE3" t="n">
-        <v>57379.7416224625</v>
+        <v>81917.34628907236</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.680243212349399e-06</v>
+        <v>1.28463554248669e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>51903.49961510156</v>
+        <v>74099.2697309801</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.68182172710861</v>
+        <v>55.48595522731658</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.92617500840506</v>
+        <v>75.91833180957049</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.87497514805649</v>
+        <v>68.67279277373028</v>
       </c>
       <c r="AD2" t="n">
-        <v>38681.82172710861</v>
+        <v>55485.95522731658</v>
       </c>
       <c r="AE2" t="n">
-        <v>52926.17500840506</v>
+        <v>75918.33180957049</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.057247965109145e-06</v>
+        <v>1.455627486352272e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>47874.9751480565</v>
+        <v>68672.79277373028</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.48276102847828</v>
+        <v>81.21796162283221</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.12342606711603</v>
+        <v>111.1259981759</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.09480435126038</v>
+        <v>100.5202888763386</v>
       </c>
       <c r="AD2" t="n">
-        <v>61482.76102847828</v>
+        <v>81217.96162283221</v>
       </c>
       <c r="AE2" t="n">
-        <v>84123.42606711603</v>
+        <v>111125.9981758999</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789977156401063e-06</v>
+        <v>8.415800909852062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>76094.80435126038</v>
+        <v>100520.2888763386</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.20082773370087</v>
+        <v>78.76082393511938</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.31874309255423</v>
+        <v>107.7640339903087</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.89393673426473</v>
+        <v>97.47918583407272</v>
       </c>
       <c r="AD3" t="n">
-        <v>49200.82773370087</v>
+        <v>78760.82393511938</v>
       </c>
       <c r="AE3" t="n">
-        <v>67318.74309255423</v>
+        <v>107764.0339903087</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.353608150056825e-06</v>
+        <v>9.406078331716206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>60893.93673426473</v>
+        <v>97479.18583407272</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.3180377070922</v>
+        <v>68.13848964746671</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.11087083220154</v>
+        <v>93.23008759363472</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.80134210718037</v>
+        <v>84.33233888297077</v>
       </c>
       <c r="AD4" t="n">
-        <v>48318.0377070922</v>
+        <v>68138.48964746672</v>
       </c>
       <c r="AE4" t="n">
-        <v>66110.87083220154</v>
+        <v>93230.08759363471</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.545539102557057e-06</v>
+        <v>9.743293444009944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>59801.34210718038</v>
+        <v>84332.33888297077</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.00836346593643</v>
+        <v>67.82881540631094</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.68716087358912</v>
+        <v>92.80637763502229</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.41807043233712</v>
+        <v>83.94906720812752</v>
       </c>
       <c r="AD5" t="n">
-        <v>48008.36346593643</v>
+        <v>67828.81540631094</v>
       </c>
       <c r="AE5" t="n">
-        <v>65687.16087358912</v>
+        <v>92806.37763502229</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.584683563110594e-06</v>
+        <v>9.812068717040606e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH5" t="n">
-        <v>59418.07043233712</v>
+        <v>83949.06720812751</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.59568719413123</v>
+        <v>97.28406665680588</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.11915721334164</v>
+        <v>133.1083518699022</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.42287273546279</v>
+        <v>120.4046775862194</v>
       </c>
       <c r="AD2" t="n">
-        <v>66595.68719413123</v>
+        <v>97284.06665680588</v>
       </c>
       <c r="AE2" t="n">
-        <v>91119.15721334163</v>
+        <v>133108.3518699021</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.155580069481992e-06</v>
+        <v>7.105578811016481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.956597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>82422.87273546279</v>
+        <v>120404.6775862194</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.18100152692646</v>
+        <v>83.61156372573672</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.44703363817476</v>
+        <v>114.4010301713643</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.19665007694174</v>
+        <v>103.4827564146931</v>
       </c>
       <c r="AD3" t="n">
-        <v>63181.00152692645</v>
+        <v>83611.56372573672</v>
       </c>
       <c r="AE3" t="n">
-        <v>86447.03363817476</v>
+        <v>114401.0301713643</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.780607400915627e-06</v>
+        <v>8.174305893224914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>78196.65007694173</v>
+        <v>103482.7564146931</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.02796837033252</v>
+        <v>82.45853056914279</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.86940280509097</v>
+        <v>112.8233993382805</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.76958611634818</v>
+        <v>102.0556924540995</v>
       </c>
       <c r="AD4" t="n">
-        <v>62027.96837033252</v>
+        <v>82458.53056914279</v>
       </c>
       <c r="AE4" t="n">
-        <v>84869.40280509097</v>
+        <v>112823.3993382805</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.012365238947023e-06</v>
+        <v>8.570585968609951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>76769.58611634817</v>
+        <v>102055.6924540995</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.5894358276792</v>
+        <v>82.01999802648947</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.26938323354264</v>
+        <v>112.2233797667322</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.22683157057547</v>
+        <v>101.5129379083268</v>
       </c>
       <c r="AD5" t="n">
-        <v>61589.4358276792</v>
+        <v>82019.99802648947</v>
       </c>
       <c r="AE5" t="n">
-        <v>84269.38323354264</v>
+        <v>112223.3797667322</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.065269321126368e-06</v>
+        <v>8.661046053378979e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH5" t="n">
-        <v>76226.83157057546</v>
+        <v>101512.9379083268</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>50.42469158364568</v>
+        <v>81.02773019174869</v>
       </c>
       <c r="AB6" t="n">
-        <v>68.9932876051103</v>
+        <v>110.8657151394732</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.40866506878097</v>
+        <v>100.2848468875987</v>
       </c>
       <c r="AD6" t="n">
-        <v>50424.69158364568</v>
+        <v>81027.73019174869</v>
       </c>
       <c r="AE6" t="n">
-        <v>68993.28760511029</v>
+        <v>110865.7151394732</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.191527404246758e-06</v>
+        <v>8.876933305011609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.967013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>62408.66506878097</v>
+        <v>100284.8468875987</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>50.51617192125286</v>
+        <v>81.11921052935588</v>
       </c>
       <c r="AB7" t="n">
-        <v>69.11845503885203</v>
+        <v>110.9908825732149</v>
       </c>
       <c r="AC7" t="n">
-        <v>62.52188669832005</v>
+        <v>100.3980685171378</v>
       </c>
       <c r="AD7" t="n">
-        <v>50516.17192125286</v>
+        <v>81119.21052935589</v>
       </c>
       <c r="AE7" t="n">
-        <v>69118.45503885203</v>
+        <v>110990.8825732149</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.181444787687914e-06</v>
+        <v>8.859693154326928e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.975694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>62521.88669832004</v>
+        <v>100398.0685171378</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.23123328213016</v>
+        <v>53.50709021562715</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.94141590254954</v>
+        <v>73.21076139921549</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.07963866563102</v>
+        <v>66.22362908323973</v>
       </c>
       <c r="AD2" t="n">
-        <v>37231.23328213016</v>
+        <v>53507.09021562715</v>
       </c>
       <c r="AE2" t="n">
-        <v>50941.41590254954</v>
+        <v>73210.76139921548</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.939491899476044e-06</v>
+        <v>1.487452740435316e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.810763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>46079.63866563101</v>
+        <v>66223.62908323974</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.90233729902678</v>
+        <v>64.6588252491853</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.80560296070762</v>
+        <v>88.46905725194956</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.81152436236818</v>
+        <v>80.02569459494649</v>
       </c>
       <c r="AD2" t="n">
-        <v>45902.33729902677</v>
+        <v>64658.82524918531</v>
       </c>
       <c r="AE2" t="n">
-        <v>62805.60296070762</v>
+        <v>88469.05725194956</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.768478564273895e-06</v>
+        <v>1.062803258486839e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.932291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>56811.52436236818</v>
+        <v>80025.69459494649</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.51222883022083</v>
+        <v>63.26871678037936</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.9035952264309</v>
+        <v>86.56704951767283</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.09104157676559</v>
+        <v>78.30521180934389</v>
       </c>
       <c r="AD3" t="n">
-        <v>44512.22883022083</v>
+        <v>63268.71678037936</v>
       </c>
       <c r="AE3" t="n">
-        <v>60903.5952264309</v>
+        <v>86567.04951767283</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.211896158935918e-06</v>
+        <v>1.144499958791127e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.654513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>55091.04157676559</v>
+        <v>78305.21180934389</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.51222883022083</v>
+        <v>63.26871678037936</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.9035952264309</v>
+        <v>86.56704951767283</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.09104157676559</v>
+        <v>78.30521180934389</v>
       </c>
       <c r="AD4" t="n">
-        <v>44512.22883022083</v>
+        <v>63268.71678037936</v>
       </c>
       <c r="AE4" t="n">
-        <v>60903.5952264309</v>
+        <v>86567.04951767283</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.211896158935918e-06</v>
+        <v>1.144499958791127e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.654513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>55091.04157676559</v>
+        <v>78305.21180934389</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.11112803077874</v>
+        <v>78.45340516656265</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.87845317060162</v>
+        <v>107.3434100688107</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.15952711364021</v>
+        <v>97.09870566929298</v>
       </c>
       <c r="AD2" t="n">
-        <v>59111.12803077874</v>
+        <v>78453.40516656265</v>
       </c>
       <c r="AE2" t="n">
-        <v>80878.45317060161</v>
+        <v>107343.4100688107</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.137583457196417e-06</v>
+        <v>9.177917914274386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>73159.52711364022</v>
+        <v>97098.70566929298</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.35173231044762</v>
+        <v>66.77926079225212</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.78872915812769</v>
+        <v>91.37033070898603</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.6053837788422</v>
+        <v>82.65007458520716</v>
       </c>
       <c r="AD3" t="n">
-        <v>47351.73231044762</v>
+        <v>66779.26079225211</v>
       </c>
       <c r="AE3" t="n">
-        <v>64788.72915812769</v>
+        <v>91370.33070898603</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.682378812148152e-06</v>
+        <v>1.015115505766739e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.845486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>58605.3837788422</v>
+        <v>82650.07458520717</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.69969938598002</v>
+        <v>66.12722786778451</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.89658894520912</v>
+        <v>90.47819049606747</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.79838817571764</v>
+        <v>81.84307898208262</v>
       </c>
       <c r="AD4" t="n">
-        <v>46699.69938598002</v>
+        <v>66127.22786778452</v>
       </c>
       <c r="AE4" t="n">
-        <v>63896.58894520912</v>
+        <v>90478.19049606747</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.798824196923124e-06</v>
+        <v>1.035917623958392e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.767361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>57798.38817571764</v>
+        <v>81843.07898208262</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.54216986410841</v>
+        <v>65.96969834591292</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.68105010367248</v>
+        <v>90.26265165453083</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.60342005870652</v>
+        <v>81.64811086507149</v>
       </c>
       <c r="AD5" t="n">
-        <v>46542.16986410841</v>
+        <v>65969.69834591291</v>
       </c>
       <c r="AE5" t="n">
-        <v>63681.05010367247</v>
+        <v>90262.65165453083</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.856204175897355e-06</v>
+        <v>1.046168138452917e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>57603.42005870652</v>
+        <v>81648.11086507149</v>
       </c>
     </row>
   </sheetData>
